--- a/FileExcel/diemCuoiKi.xlsx
+++ b/FileExcel/diemCuoiKi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB44B15-AC9D-4784-B88B-B6636ECFDD24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEED193B-92D0-4DFA-AAF2-1356B3497A13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>STT</t>
   </si>
@@ -509,7 +509,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
